--- a/2 - Language (Words)/[7-11] Word Scaling Analysis (log)/Parameter Tables/Aggregate-Parameters-for_English_Scaling.xlsx
+++ b/2 - Language (Words)/[7-11] Word Scaling Analysis (log)/Parameter Tables/Aggregate-Parameters-for_English_Scaling.xlsx
@@ -165,46 +165,46 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>122.32988648368217</v>
+        <v>88.94787128385633</v>
       </c>
       <c r="B2" s="0">
-        <v>4.1416423932137283</v>
+        <v>3.2672515866804757</v>
       </c>
       <c r="C2" s="0">
-        <v>-22.286970218046932</v>
+        <v>-19.80112294042058</v>
       </c>
       <c r="D2" s="0">
-        <v>7.3186455337606899</v>
+        <v>6.1246374422336958</v>
       </c>
       <c r="E2" s="0">
-        <v>266.23264118871685</v>
+        <v>331.1098736231051</v>
       </c>
       <c r="F2" s="0">
-        <v>9.9000011849580165</v>
+        <v>7.785145470917735</v>
       </c>
       <c r="G2" s="0">
-        <v>557.09536644078025</v>
+        <v>540.67252418319038</v>
       </c>
       <c r="H2" s="0">
-        <v>10.103947280595623</v>
+        <v>8.6483430239752437</v>
       </c>
       <c r="I2" s="0">
-        <v>0.44642060705470288</v>
+        <v>0.22287795462860235</v>
       </c>
       <c r="J2" s="0">
-        <v>0.44642060705470288</v>
+        <v>0.22287795462860235</v>
       </c>
       <c r="K2" s="0">
-        <v>8.159905653996562</v>
+        <v>7.8821297219057387</v>
       </c>
       <c r="L2" s="0">
-        <v>1.1657008077137945</v>
+        <v>1.1260185317008198</v>
       </c>
       <c r="M2" s="0">
-        <v>0.98162089578268219</v>
+        <v>0.98780601013284786</v>
       </c>
       <c r="N2" s="0">
-        <v>-0.56835195341769973</v>
+        <v>-0.63612651092666672</v>
       </c>
     </row>
   </sheetData>
